--- a/data/ListEmployees.xlsx
+++ b/data/ListEmployees.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Anastasiya</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>jQuery</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Project ID</t>
   </si>
 </sst>
 </file>
@@ -211,16 +217,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -524,167 +530,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="2"/>
-    <col min="14" max="14" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="10.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.88671875" style="2"/>
-    <col min="16" max="16" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="2"/>
+    <col min="16" max="16" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
       <c r="S1" s="4"/>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
       <c r="W1" s="4"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="N2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="O2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="Q2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="R2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="S2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="U2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="V2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="W2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="X2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="Y2" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>6</v>
@@ -693,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>31</v>
@@ -705,10 +721,10 @@
         <v>31</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>6</v>
@@ -720,19 +736,25 @@
         <v>6</v>
       </c>
       <c r="T3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -756,8 +778,10 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -781,8 +805,10 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -806,8 +832,10 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -831,8 +859,10 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -856,8 +886,10 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -881,8 +913,10 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -906,8 +940,10 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -931,8 +967,10 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -956,8 +994,10 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -981,8 +1021,10 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1006,8 +1048,10 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1031,8 +1075,10 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1056,18 +1102,22 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
+  <mergeCells count="11">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
